--- a/Measures/data_saxpy_IGX_0_0.xlsx
+++ b/Measures/data_saxpy_IGX_0_0.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="data_saxpy_IGX_0_0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>fastPath_2</t>
+  </si>
+  <si>
+    <t>J/size</t>
   </si>
 </sst>
 </file>
@@ -624,10 +627,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>data_saxpy_IGX_0_0!$E$2:$E$10</c:f>
+              <c:f>data_saxpy_IGX_0_0!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>303.12357361763702</c:v>
                 </c:pt>
@@ -654,16 +657,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7579.1652341695899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14776.343773885899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39147.5439768824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data_saxpy_IGX_0_0!$H$2:$H$10</c:f>
+              <c:f>data_saxpy_IGX_0_0!$H$2:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>7.9483151435852104</c:v>
                 </c:pt>
@@ -690,28 +699,34 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>36.489002227783203</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.419731140136697</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.571548461914098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="58408320"/>
-        <c:axId val="58406016"/>
+        <c:axId val="107270144"/>
+        <c:axId val="107397888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58408320"/>
+        <c:axId val="107270144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58406016"/>
+        <c:crossAx val="107397888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58406016"/>
+        <c:axId val="107397888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -719,7 +734,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58408320"/>
+        <c:crossAx val="107270144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -732,7 +747,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -770,10 +785,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>data_saxpy_IGX_0_0!$E$2:$E$10</c:f>
+              <c:f>data_saxpy_IGX_0_0!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>303.12357361763702</c:v>
                 </c:pt>
@@ -800,16 +815,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7579.1652341695899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14776.343773885899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39147.5439768824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data_saxpy_IGX_0_0!$I$2:$I$10</c:f>
+              <c:f>data_saxpy_IGX_0_0!$I$2:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>7936</c:v>
                 </c:pt>
@@ -836,28 +857,34 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98304</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="61180160"/>
-        <c:axId val="61074432"/>
+        <c:axId val="111436544"/>
+        <c:axId val="111438080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61180160"/>
+        <c:axId val="111436544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61074432"/>
+        <c:crossAx val="111438080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61074432"/>
+        <c:axId val="111438080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -865,7 +892,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61180160"/>
+        <c:crossAx val="111436544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -878,7 +905,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -916,10 +943,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>data_saxpy_IGX_0_0!$E$2:$E$10</c:f>
+              <c:f>data_saxpy_IGX_0_0!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>303.12357361763702</c:v>
                 </c:pt>
@@ -946,16 +973,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7579.1652341695899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14776.343773885899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39147.5439768824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data_saxpy_IGX_0_0!$J$2:$J$10</c:f>
+              <c:f>data_saxpy_IGX_0_0!$J$2:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.9065810441970801</c:v>
                 </c:pt>
@@ -982,28 +1015,34 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4.3451619148254403</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.33059501647949</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5208570957183798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="62216448"/>
-        <c:axId val="62214912"/>
+        <c:axId val="129021824"/>
+        <c:axId val="129023360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62216448"/>
+        <c:axId val="129021824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62214912"/>
+        <c:crossAx val="129023360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62214912"/>
+        <c:axId val="129023360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1011,7 +1050,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62216448"/>
+        <c:crossAx val="129021824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1024,7 +1063,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1062,10 +1101,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>data_saxpy_IGX_0_0!$E$2:$E$10</c:f>
+              <c:f>data_saxpy_IGX_0_0!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>303.12357361763702</c:v>
                 </c:pt>
@@ -1092,16 +1131,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7579.1652341695899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14776.343773885899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39147.5439768824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data_saxpy_IGX_0_0!$K$2:$K$10</c:f>
+              <c:f>data_saxpy_IGX_0_0!$K$2:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>8.1408796310424805</c:v>
                 </c:pt>
@@ -1128,28 +1173,34 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>65.610588073730497</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.233299255371101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.397514343261697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="61074816"/>
-        <c:axId val="60773504"/>
+        <c:axId val="46214144"/>
+        <c:axId val="46224128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61074816"/>
+        <c:axId val="46214144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60773504"/>
+        <c:crossAx val="46224128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60773504"/>
+        <c:axId val="46224128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1157,7 +1208,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61074816"/>
+        <c:crossAx val="46214144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1170,7 +1221,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1208,10 +1259,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>data_saxpy_IGX_0_0!$E$2:$E$10</c:f>
+              <c:f>data_saxpy_IGX_0_0!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>303.12357361763702</c:v>
                 </c:pt>
@@ -1238,16 +1289,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7579.1652341695899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14776.343773885899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39147.5439768824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data_saxpy_IGX_0_0!$L$2:$L$10</c:f>
+              <c:f>data_saxpy_IGX_0_0!$L$2:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>6.656005859375</c:v>
                 </c:pt>
@@ -1274,28 +1331,34 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>62.154270172119098</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.578102111816399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49.587398529052699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="62506112"/>
-        <c:axId val="62213120"/>
+        <c:axId val="46252416"/>
+        <c:axId val="46253952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62506112"/>
+        <c:axId val="46252416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62213120"/>
+        <c:crossAx val="46253952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62213120"/>
+        <c:axId val="46253952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,7 +1366,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62506112"/>
+        <c:crossAx val="46252416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1316,7 +1379,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1354,10 +1417,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>data_saxpy_IGX_0_0!$E$2:$E$10</c:f>
+              <c:f>data_saxpy_IGX_0_0!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>303.12357361763702</c:v>
                 </c:pt>
@@ -1384,16 +1447,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7579.1652341695899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14776.343773885899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39147.5439768824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data_saxpy_IGX_0_0!$M$2:$M$10</c:f>
+              <c:f>data_saxpy_IGX_0_0!$M$2:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>15872</c:v>
                 </c:pt>
@@ -1420,28 +1489,34 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>196608</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>262144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="62369792"/>
-        <c:axId val="61994880"/>
+        <c:axId val="112129536"/>
+        <c:axId val="112131072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62369792"/>
+        <c:axId val="112129536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61994880"/>
+        <c:crossAx val="112131072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61994880"/>
+        <c:axId val="112131072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1449,7 +1524,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62369792"/>
+        <c:crossAx val="112129536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1462,7 +1537,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1500,10 +1575,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>data_saxpy_IGX_0_0!$E$2:$E$10</c:f>
+              <c:f>data_saxpy_IGX_0_0!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>303.12357361763702</c:v>
                 </c:pt>
@@ -1530,16 +1605,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7579.1652341695899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14776.343773885899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39147.5439768824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data_saxpy_IGX_0_0!$N$2:$N$10</c:f>
+              <c:f>data_saxpy_IGX_0_0!$N$2:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>7936</c:v>
                 </c:pt>
@@ -1566,28 +1647,34 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98304</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="72987392"/>
-        <c:axId val="70572672"/>
+        <c:axId val="123394688"/>
+        <c:axId val="46399872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72987392"/>
+        <c:axId val="123394688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70572672"/>
+        <c:crossAx val="46399872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70572672"/>
+        <c:axId val="46399872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1595,9 +1682,168 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72987392"/>
+        <c:crossAx val="123394688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data_saxpy_IGX_0_0!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>J/size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data_saxpy_IGX_0_0!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67108864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data_saxpy_IGX_0_0!$P$2:$P$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.6252986697027133E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5853872471998289E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6843903194967422E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1341958696229324E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8496260164481833E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.317292227608776E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2079968437973741E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7725055398788928E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5175345147666871E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4036936086076198E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.8334386314276457E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="53024640"/>
+        <c:axId val="53026176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="53024640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53026176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="53026176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53024640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1821,6 +2067,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Grafico 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2114,15 +2390,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="N1" activeCellId="1" sqref="E1:E10 N1:N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2165,8 +2441,11 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2209,8 +2488,12 @@
       <c r="N2">
         <v>7936</v>
       </c>
+      <c r="P2">
+        <f>E2/B2</f>
+        <v>4.6252986697027133E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2253,8 +2536,12 @@
       <c r="N3">
         <v>19840</v>
       </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P12" si="0">E3/B3</f>
+        <v>2.5853872471998289E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2297,8 +2584,12 @@
       <c r="N4">
         <v>28672</v>
       </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>1.6843903194967422E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2341,8 +2632,12 @@
       <c r="N5">
         <v>25600</v>
       </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>1.1341958696229324E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2385,8 +2680,12 @@
       <c r="N6">
         <v>41984</v>
       </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>7.8496260164481833E-4</v>
+      </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2429,8 +2728,12 @@
       <c r="N7">
         <v>45056</v>
       </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>6.317292227608776E-4</v>
+      </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2473,8 +2776,12 @@
       <c r="N8">
         <v>73728</v>
       </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>5.2079968437973741E-4</v>
+      </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2517,8 +2824,12 @@
       <c r="N9">
         <v>16384</v>
       </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>4.7725055398788928E-4</v>
+      </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2561,8 +2872,12 @@
       <c r="N10">
         <v>32768</v>
       </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>4.5175345147666871E-4</v>
+      </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2605,8 +2920,12 @@
       <c r="N11">
         <v>98304</v>
       </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>4.4036936086076198E-4</v>
+      </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2649,58 +2968,62 @@
       <c r="N12">
         <v>131072</v>
       </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>5.8334386314276457E-4</v>
+      </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:16">
       <c r="B15">
         <f>CORREL(B2:B10,$E2:$E10)</f>
         <v>0.99981345872861727</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:N15" si="0">CORREL(C2:C10,$E2:$E10)</f>
+        <f t="shared" ref="C15:N15" si="1">CORREL(C2:C10,$E2:$E10)</f>
         <v>0.21219078327068339</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99996836770777187</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F15" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G15" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.81521584480167242</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.4039463494623859E-2</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.40837669314514413</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.88214745965912988</v>
       </c>
       <c r="L15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.8861131763488137</v>
       </c>
       <c r="M15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.4039463494623859E-2</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.4039463494623859E-2</v>
       </c>
     </row>
